--- a/Tables_K10.xlsx
+++ b/Tables_K10.xlsx
@@ -476,13 +476,13 @@
         <v>2.961295436113622</v>
       </c>
       <c r="C2" t="n">
-        <v>2.943535942819698</v>
+        <v>2.943535942817456</v>
       </c>
       <c r="D2" t="n">
-        <v>2.961295436114097</v>
+        <v>2.961295436114117</v>
       </c>
       <c r="E2" t="n">
-        <v>2.91630700002526</v>
+        <v>2.916307000025266</v>
       </c>
       <c r="F2" t="n">
         <v>2.942323478225335</v>
@@ -501,16 +501,16 @@
         <v>1.41846400736334e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>6.482593417622695e-08</v>
+        <v>6.482593517542767e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>1.418464005698006e-07</v>
+        <v>1.418464005142894e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>7.311769234519261e-08</v>
+        <v>7.311769323337103e-08</v>
       </c>
       <c r="F3" t="n">
-        <v>4.859479563190661e-08</v>
+        <v>4.859479607599582e-08</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>0.3663375264835553</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4252788725273047</v>
+        <v>0.4252788725269869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3663375264836095</v>
+        <v>0.3663375264836144</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4200921022513937</v>
+        <v>0.4200921022513842</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4251177323227504</v>
+        <v>0.4251177323227495</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -551,13 +551,13 @@
         <v>0.02034699694849988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02116585354021065</v>
+        <v>0.02116585354019477</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02034699694850315</v>
+        <v>0.02034699694850333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02053005799574189</v>
+        <v>0.02053005799574191</v>
       </c>
       <c r="F5" t="n">
         <v>0.021165101777754</v>
@@ -576,16 +576,16 @@
         <v>0.005397405072515585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005540383323788034</v>
+        <v>0.005540383323782427</v>
       </c>
       <c r="D6" t="n">
         <v>0.005397405072516598</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005352705238979683</v>
+        <v>0.005352705238979738</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005544801395417187</v>
+        <v>0.005544801395417326</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -601,16 +601,16 @@
         <v>0.01158858708153732</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01087379832701105</v>
+        <v>0.01087379832700247</v>
       </c>
       <c r="D7" t="n">
         <v>0.01158858708153909</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01109710291259153</v>
+        <v>0.01109710291259158</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01088144162280741</v>
+        <v>0.01088144162280752</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>0.01989820734236331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01889213081985999</v>
+        <v>0.01889213081984616</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01989820734236647</v>
+        <v>0.01989820734236677</v>
       </c>
       <c r="E8" t="n">
         <v>0.01926861458484984</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01887810248288577</v>
+        <v>0.01887810248288579</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -651,16 +651,16 @@
         <v>8.20298102772874</v>
       </c>
       <c r="C9" t="n">
-        <v>8.039991185526418</v>
+        <v>7.907270586784562</v>
       </c>
       <c r="D9" t="n">
-        <v>8.202979722469488</v>
+        <v>8.20298102772875</v>
       </c>
       <c r="E9" t="n">
-        <v>8.140136836292221</v>
+        <v>8.140136913028176</v>
       </c>
       <c r="F9" t="n">
-        <v>8.178654667187244</v>
+        <v>8.178654667187242</v>
       </c>
       <c r="G9" t="n">
         <v>7.894038662003702</v>
@@ -676,13 +676,13 @@
         <v>6.685029330100178e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>4.603652166146333e-07</v>
+        <v>1.302206857900501e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>3.77307335375221e-08</v>
+        <v>6.685029330100178e-08</v>
       </c>
       <c r="E10" t="n">
-        <v>2.069446576324907e-07</v>
+        <v>2.077629240870849e-07</v>
       </c>
       <c r="F10" t="n">
         <v>3.178250040924979e-08</v>
@@ -701,16 +701,16 @@
         <v>3.509867928538796</v>
       </c>
       <c r="C11" t="n">
-        <v>2.941568125043018</v>
+        <v>2.701178418078501</v>
       </c>
       <c r="D11" t="n">
-        <v>3.509875884663437</v>
+        <v>3.509867928538847</v>
       </c>
       <c r="E11" t="n">
-        <v>4.069421061207113</v>
+        <v>4.069420792679765</v>
       </c>
       <c r="F11" t="n">
-        <v>4.002563859228531</v>
+        <v>4.002563859228532</v>
       </c>
       <c r="G11" t="n">
         <v>2.699699745328348</v>
@@ -726,16 +726,16 @@
         <v>0.09079258973704303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0897648158635669</v>
+        <v>0.08835518665201346</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09079259405989337</v>
+        <v>0.09079258973704317</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09122507865448816</v>
+        <v>0.09122507847082335</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0914628073242022</v>
+        <v>0.09146280732420219</v>
       </c>
       <c r="G12" t="n">
         <v>0.08829863687564556</v>
@@ -751,16 +751,16 @@
         <v>0.0102589134605901</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009955335764660012</v>
+        <v>0.009528430381528369</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01025889909611029</v>
+        <v>0.01025891346059014</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01024524836167179</v>
+        <v>0.01024524732775253</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01034211096653755</v>
+        <v>0.01034211096653739</v>
       </c>
       <c r="G13" t="n">
         <v>0.009474254084995748</v>
@@ -776,16 +776,16 @@
         <v>0.02158398031832187</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02037538088411794</v>
+        <v>0.01970565884395953</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02158398087385466</v>
+        <v>0.0215839803183217</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02095093037991283</v>
+        <v>0.02095092664853887</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02085545779288789</v>
+        <v>0.02085545779288792</v>
       </c>
       <c r="G14" t="n">
         <v>0.01961934554236539</v>
@@ -801,16 +801,16 @@
         <v>0.04354489578892762</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04290135198968473</v>
+        <v>0.04226398691563119</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04354489478987419</v>
+        <v>0.04354489578892742</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04317529233042941</v>
+        <v>0.04317529155666538</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04352305568549426</v>
+        <v>0.04352305568549428</v>
       </c>
       <c r="G15" t="n">
         <v>0.0421764622181434</v>
@@ -826,16 +826,16 @@
         <v>7.090525375213812</v>
       </c>
       <c r="C16" t="n">
-        <v>6.881893668989002</v>
+        <v>5.036943742420421</v>
       </c>
       <c r="D16" t="n">
-        <v>7.090525375213947</v>
+        <v>7.090525375213938</v>
       </c>
       <c r="E16" t="n">
-        <v>6.837550470504075</v>
+        <v>6.837278607361133</v>
       </c>
       <c r="F16" t="n">
-        <v>6.802923741304769</v>
+        <v>6.829051587073349</v>
       </c>
       <c r="G16" t="n">
         <v>5.036943742420421</v>
@@ -851,16 +851,16 @@
         <v>1.617289505650987e-07</v>
       </c>
       <c r="C17" t="n">
-        <v>1.011841447295936e-07</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.617289513422548e-07</v>
+        <v>1.617289512312325e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>3.899161892251257e-07</v>
+        <v>2.345653011825988e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>3.759999962493765e-07</v>
+        <v>6.212716097131477e-08</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0.9590310236004542</v>
       </c>
       <c r="C18" t="n">
-        <v>1.100005310935685</v>
+        <v>0.7971418923067037</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9590310236004636</v>
+        <v>0.9590310236004613</v>
       </c>
       <c r="E18" t="n">
-        <v>1.050019753442256</v>
+        <v>1.048943847965882</v>
       </c>
       <c r="F18" t="n">
-        <v>1.069646489686204</v>
+        <v>1.037845132697786</v>
       </c>
       <c r="G18" t="n">
         <v>0.7971418923067037</v>
@@ -901,16 +901,16 @@
         <v>0.05953126993456336</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0594783518494289</v>
+        <v>0.05137849655530935</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05953126993456401</v>
+        <v>0.05953126993456397</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05933267457126067</v>
+        <v>0.05932852035216764</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05927417657817867</v>
+        <v>0.05927347479066778</v>
       </c>
       <c r="G19" t="n">
         <v>0.05137849655530935</v>
@@ -926,16 +926,16 @@
         <v>0.007852254129834854</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007418474258498647</v>
+        <v>0.0007758292511315795</v>
       </c>
       <c r="D20" t="n">
-        <v>0.007852254129835132</v>
+        <v>0.007852254129835062</v>
       </c>
       <c r="E20" t="n">
-        <v>0.007367393133906205</v>
+        <v>0.007370874263291582</v>
       </c>
       <c r="F20" t="n">
-        <v>0.007189628236240739</v>
+        <v>0.007397986071251778</v>
       </c>
       <c r="G20" t="n">
         <v>0.0007758292511315795</v>
@@ -951,16 +951,16 @@
         <v>0.01843304483200775</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01646662508278907</v>
+        <v>0.006527785804650743</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01843304483200842</v>
+        <v>0.01843304483200825</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01626101107978645</v>
+        <v>0.01626418257679041</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01599211150120528</v>
+        <v>0.01625334920732002</v>
       </c>
       <c r="G21" t="n">
         <v>0.006527785804650743</v>
@@ -976,16 +976,16 @@
         <v>0.04202512756918912</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04004774196997184</v>
+        <v>0.02886534593211755</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04202512756919009</v>
+        <v>0.04202512756918994</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0395325774839685</v>
+        <v>0.03953297297583466</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03937935157084937</v>
+        <v>0.0393886907129132</v>
       </c>
       <c r="G22" t="n">
         <v>0.02886534593211755</v>
@@ -1001,16 +1001,16 @@
         <v>0.7515856650307048</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7645447357279019</v>
+        <v>0.7645447357275477</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7515856650307214</v>
+        <v>0.751585665030722</v>
       </c>
       <c r="E23" t="n">
-        <v>0.760637371425124</v>
+        <v>0.7606373714251242</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7643374578284369</v>
+        <v>0.7643374578284339</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>6.147745975626506e-07</v>
       </c>
       <c r="E24" t="n">
-        <v>1.561362105162445e-07</v>
+        <v>1.561362105717556e-07</v>
       </c>
       <c r="F24" t="n">
-        <v>3.250399347454191e-07</v>
+        <v>3.250399351895084e-07</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         <v>0.2525174357006338</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3461188756694811</v>
+        <v>0.346118875669326</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2525174357006411</v>
+        <v>0.2525174357006423</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2686919145176548</v>
+        <v>0.2686919145176534</v>
       </c>
       <c r="F25" t="n">
-        <v>0.346061381807416</v>
+        <v>0.3460613818074143</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0.02110460713674243</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02219693015238164</v>
+        <v>0.02219693015237141</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02110460713674284</v>
+        <v>0.02110460713674287</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02110360919785941</v>
+        <v>0.02110360919785942</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02219270645744834</v>
+        <v>0.02219270645744825</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0.005387623854677948</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005604401520158842</v>
+        <v>0.005604401520155844</v>
       </c>
       <c r="D27" t="n">
-        <v>0.005387623854677503</v>
+        <v>0.005387623854677892</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005916176027206857</v>
+        <v>0.005916176027206864</v>
       </c>
       <c r="F27" t="n">
         <v>0.005596069227913308</v>
@@ -1126,16 +1126,16 @@
         <v>0.01202505566118187</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01152537639083742</v>
+        <v>0.01152537639083191</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01202505566118192</v>
+        <v>0.01202505566118212</v>
       </c>
       <c r="E28" t="n">
         <v>0.01248592607927967</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0115213447852065</v>
+        <v>0.01152134478520644</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1151,16 +1151,16 @@
         <v>0.02042165103444743</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02003000088084871</v>
+        <v>0.02003000088083938</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02042165103444801</v>
+        <v>0.02042165103444765</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01994282666489109</v>
+        <v>0.0199428266648911</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02003333499411523</v>
+        <v>0.0200333349941153</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1176,13 +1176,13 @@
         <v>3.568842147558764</v>
       </c>
       <c r="C30" t="n">
-        <v>3.537582628184047</v>
+        <v>3.507027611645985</v>
       </c>
       <c r="D30" t="n">
-        <v>3.568842252042845</v>
+        <v>3.568842147558766</v>
       </c>
       <c r="E30" t="n">
-        <v>3.529183086612014</v>
+        <v>3.529183083828705</v>
       </c>
       <c r="F30" t="n">
         <v>3.520191833655686</v>
@@ -1201,13 +1201,13 @@
         <v>1.197154546939139e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>3.762750862001951e-07</v>
+        <v>5.48578612868944e-07</v>
       </c>
       <c r="D31" t="n">
-        <v>1.173902672180205e-06</v>
+        <v>1.197154546606072e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>2.312032161611022e-06</v>
+        <v>2.312650861979737e-06</v>
       </c>
       <c r="F31" t="n">
         <v>3.42446782375383e-07</v>
@@ -1226,13 +1226,13 @@
         <v>3.17813672597709</v>
       </c>
       <c r="C32" t="n">
-        <v>2.702912088664162</v>
+        <v>2.699699745328348</v>
       </c>
       <c r="D32" t="n">
-        <v>3.178146298757802</v>
+        <v>3.17813672597715</v>
       </c>
       <c r="E32" t="n">
-        <v>2.705054702415504</v>
+        <v>2.705054705935155</v>
       </c>
       <c r="F32" t="n">
         <v>2.700455484168769</v>
@@ -1251,13 +1251,13 @@
         <v>0.1484339035465086</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1469715393591926</v>
+        <v>0.1452882904506144</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1484339232594324</v>
+        <v>0.1484339035465088</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1465419391862436</v>
+        <v>0.1465419389651061</v>
       </c>
       <c r="F33" t="n">
         <v>0.1459432874792305</v>
@@ -1276,13 +1276,13 @@
         <v>0.0168678157925894</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0155527049617572</v>
+        <v>0.01517531910731448</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01686780935544119</v>
+        <v>0.01686781579258932</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01547500981046725</v>
+        <v>0.01547500909263342</v>
       </c>
       <c r="F34" t="n">
         <v>0.01541157103496879</v>
@@ -1301,13 +1301,13 @@
         <v>0.04154015690193167</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04118688682551548</v>
+        <v>0.0409109380825427</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04154016588302793</v>
+        <v>0.04154015690193158</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0411415896585548</v>
+        <v>0.04114158763629039</v>
       </c>
       <c r="F35" t="n">
         <v>0.04109783876797563</v>
@@ -1326,13 +1326,13 @@
         <v>0.08147286934578449</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08210177274372281</v>
+        <v>0.08192925198125769</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08147281077372709</v>
+        <v>0.08147286934578471</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08197438084203387</v>
+        <v>0.08197438072992412</v>
       </c>
       <c r="F36" t="n">
         <v>0.08195160189216308</v>
@@ -1351,16 +1351,16 @@
         <v>1.680535966185068</v>
       </c>
       <c r="C37" t="n">
-        <v>1.84193614794735</v>
+        <v>1.246159521151819</v>
       </c>
       <c r="D37" t="n">
-        <v>1.680535966185091</v>
+        <v>1.680535966185087</v>
       </c>
       <c r="E37" t="n">
-        <v>1.830308639553456</v>
+        <v>1.830308639553455</v>
       </c>
       <c r="F37" t="n">
-        <v>1.828782331965116</v>
+        <v>1.828684711478528</v>
       </c>
       <c r="G37" t="n">
         <v>1.200177503941269</v>
@@ -1376,16 +1376,16 @@
         <v>2.308863548128315e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>2.446422137092341e-07</v>
+        <v>6.725781720451351e-08</v>
       </c>
       <c r="D38" t="n">
-        <v>2.308863560340768e-07</v>
+        <v>2.308863558120322e-07</v>
       </c>
       <c r="E38" t="n">
-        <v>1.14523308503145e-07</v>
+        <v>1.145233086141673e-07</v>
       </c>
       <c r="F38" t="n">
-        <v>5.753553122267441e-07</v>
+        <v>3.575784519593839e-06</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1401,16 +1401,16 @@
         <v>0.9136271839873846</v>
       </c>
       <c r="C39" t="n">
-        <v>1.059270377257106</v>
+        <v>0.8172837166812343</v>
       </c>
       <c r="D39" t="n">
-        <v>0.91362718398739</v>
+        <v>0.9136271839873891</v>
       </c>
       <c r="E39" t="n">
-        <v>1.042538791145186</v>
+        <v>1.042538791145185</v>
       </c>
       <c r="F39" t="n">
-        <v>1.037815209685317</v>
+        <v>1.037845132697783</v>
       </c>
       <c r="G39" t="n">
         <v>0.7971418923067037</v>
@@ -1426,16 +1426,16 @@
         <v>0.05677181765598716</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06330875465908926</v>
+        <v>0.05038471576658676</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05677181765598757</v>
+        <v>0.0567718176559875</v>
       </c>
       <c r="E40" t="n">
-        <v>0.06344143456741126</v>
+        <v>0.06344143456741125</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06343237946756514</v>
+        <v>0.06342777884352641</v>
       </c>
       <c r="G40" t="n">
         <v>0.04972799067297266</v>
@@ -1451,16 +1451,16 @@
         <v>0.007741181243987308</v>
       </c>
       <c r="C41" t="n">
-        <v>0.008567819697264167</v>
+        <v>0.001923337047957441</v>
       </c>
       <c r="D41" t="n">
-        <v>0.007741181243987638</v>
+        <v>0.007741181243987582</v>
       </c>
       <c r="E41" t="n">
         <v>0.008278654698310906</v>
       </c>
       <c r="F41" t="n">
-        <v>0.008355558177173827</v>
+        <v>0.008355904608064138</v>
       </c>
       <c r="G41" t="n">
         <v>0.000797775781384541</v>
@@ -1476,16 +1476,16 @@
         <v>0.01782965131487316</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01923810327283237</v>
+        <v>0.006971733042255235</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01782965131487382</v>
+        <v>0.01782965131487374</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01872991990770703</v>
+        <v>0.01872991990770709</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01869579678572808</v>
+        <v>0.01869323110978779</v>
       </c>
       <c r="G42" t="n">
         <v>0.006136548608498216</v>
@@ -1501,16 +1501,16 @@
         <v>0.03925627002968252</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04186279015866997</v>
+        <v>0.02724592054100052</v>
       </c>
       <c r="D43" t="n">
         <v>0.03925627002968313</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04150989581370917</v>
+        <v>0.04150989581370922</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04126974383660721</v>
+        <v>0.04126084847236794</v>
       </c>
       <c r="G43" t="n">
         <v>0.02630720190347194</v>
@@ -1577,13 +1577,13 @@
         <v>-0.2568999504178469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002211000799940077</v>
+        <v>0.002211000799941187</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2969245870953273</v>
+        <v>-0.2969245870953274</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2362413742180911</v>
+        <v>-0.2362413742180913</v>
       </c>
       <c r="F2" t="n">
         <v>0.002258480341701397</v>
@@ -1602,13 +1602,13 @@
         <v>-0.2568999504178469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002211000799940077</v>
+        <v>0.002211000799941187</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2969245870953273</v>
+        <v>-0.2969245870953274</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2362413742180911</v>
+        <v>-0.2362413742180913</v>
       </c>
       <c r="F3" t="n">
         <v>0.002258480341701397</v>
@@ -1677,13 +1677,13 @@
         <v>-0.1769680921411452</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03645636754064308</v>
+        <v>0.03913076215628508</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1947601622878397</v>
+        <v>-0.1947603088757426</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.07771661108348293</v>
+        <v>-0.07771662670673729</v>
       </c>
       <c r="F6" t="n">
         <v>0.06435217999557219</v>
@@ -1702,16 +1702,16 @@
         <v>-0.1538804396010411</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06596913944702365</v>
+        <v>0.0663510887155907</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1670944826613843</v>
+        <v>-0.1670946050126084</v>
       </c>
       <c r="E7" t="n">
-        <v>0.009686444990056886</v>
+        <v>0.00968643140059533</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4624587344565214</v>
+        <v>0.4624587344565219</v>
       </c>
       <c r="G7" t="n">
         <v>0.7634515070616527</v>
@@ -1727,16 +1727,16 @@
         <v>0.02308765254010403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02951277190638057</v>
+        <v>0.02722032655930562</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02766567962645544</v>
+        <v>0.02766570386313416</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08740305607353982</v>
+        <v>0.08740305810733262</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3981065544609492</v>
+        <v>0.3981065544609497</v>
       </c>
       <c r="G8" t="n">
         <v>0.1533274990763598</v>
@@ -1752,16 +1752,16 @@
         <v>15.00363048088655</v>
       </c>
       <c r="C9" t="n">
-        <v>44.73723949374955</v>
+        <v>41.02468713962426</v>
       </c>
       <c r="D9" t="n">
-        <v>16.55690791569685</v>
+        <v>16.55691029704196</v>
       </c>
       <c r="E9" t="n">
-        <v>902.323361803622</v>
+        <v>902.3246487035545</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08477358067451</v>
+        <v>86.08477358067452</v>
       </c>
       <c r="G9" t="n">
         <v>20.08346275541215</v>
@@ -1777,16 +1777,16 @@
         <v>-0.126064948905931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09068351815364561</v>
+        <v>0.6330884817107889</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.134749218337244</v>
+        <v>-0.1347492183372438</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3628481773598302</v>
+        <v>0.3652282040713706</v>
       </c>
       <c r="F10" t="n">
-        <v>33.93139730819603</v>
+        <v>39.4456190097312</v>
       </c>
       <c r="G10" t="n">
         <v>0.7095591954648405</v>
@@ -1802,16 +1802,16 @@
         <v>-0.1293155526780787</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09057891328136924</v>
+        <v>0.6259284989678353</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1384756555766302</v>
+        <v>-0.1384756555766301</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3603435700492039</v>
+        <v>0.3626560080145453</v>
       </c>
       <c r="F11" t="n">
-        <v>33.34244171311796</v>
+        <v>38.9218082060902</v>
       </c>
       <c r="G11" t="n">
         <v>0.6961356606078279</v>
@@ -1827,16 +1827,16 @@
         <v>-0.003250603772147698</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0001046048722763704</v>
+        <v>-0.007159982742953597</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.003726437239386232</v>
+        <v>-0.003726437239386204</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.002504607310626294</v>
+        <v>-0.002572196056825238</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5889555950780689</v>
+        <v>-0.5238108036409983</v>
       </c>
       <c r="G12" t="n">
         <v>-0.01342353485701253</v>
@@ -1852,16 +1852,16 @@
         <v>-2.513699013636689</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1154847949560089</v>
+        <v>-1.143897866091815</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.691041413646951</v>
+        <v>-2.691041413646934</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6950609137508121</v>
+        <v>-0.7092660813500359</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.766384118312353</v>
+        <v>-1.345802848797339</v>
       </c>
       <c r="G13" t="n">
         <v>-1.928292948718046</v>
@@ -1877,10 +1877,10 @@
         <v>-0.04830121463014281</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005288343468447643</v>
+        <v>0.005288343468447865</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04950669617883977</v>
+        <v>-0.04950669617883988</v>
       </c>
       <c r="E14" t="n">
         <v>-0.04020528269738555</v>
@@ -1902,10 +1902,10 @@
         <v>-0.04830121463014281</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005288343468447643</v>
+        <v>0.005288343468447865</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.04950669617883977</v>
+        <v>-0.04950669617883988</v>
       </c>
       <c r="E15" t="n">
         <v>-0.04020528269738555</v>
@@ -1977,13 +1977,13 @@
         <v>-0.02135652681312106</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02486419579548604</v>
+        <v>0.02432294635733578</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.02158780991852096</v>
+        <v>-0.02158787725639607</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02537429997789098</v>
+        <v>0.02537429233934696</v>
       </c>
       <c r="F18" t="n">
         <v>0.03667324827223473</v>
@@ -2002,13 +2002,13 @@
         <v>-0.0132829621116578</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03926185508986557</v>
+        <v>0.03885835960227912</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01337191443786428</v>
+        <v>-0.01337196972138507</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05205808647135091</v>
+        <v>0.05205806960024617</v>
       </c>
       <c r="F19" t="n">
         <v>0.07455218262522623</v>
@@ -2027,13 +2027,13 @@
         <v>0.008073564701463254</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01439765929437953</v>
+        <v>0.01453541324494334</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00821589548065668</v>
+        <v>0.008215907535011001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02668378649345993</v>
+        <v>0.02668377726089921</v>
       </c>
       <c r="F20" t="n">
         <v>0.0378789343529915</v>
@@ -2052,13 +2052,13 @@
         <v>60.78135760379443</v>
       </c>
       <c r="C21" t="n">
-        <v>36.67085842333494</v>
+        <v>37.40614218849014</v>
       </c>
       <c r="D21" t="n">
-        <v>61.44143023673801</v>
+        <v>61.44126636685202</v>
       </c>
       <c r="E21" t="n">
-        <v>51.2577167202348</v>
+        <v>51.25771559684001</v>
       </c>
       <c r="F21" t="n">
         <v>50.80861890175487</v>
@@ -2077,16 +2077,16 @@
         <v>-0.04475235032465541</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05134384288315963</v>
+        <v>0.1401775740397502</v>
       </c>
       <c r="D22" t="n">
         <v>-0.04578465308700098</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2727446135135869</v>
+        <v>0.2727446135135876</v>
       </c>
       <c r="F22" t="n">
-        <v>32.58493898740024</v>
+        <v>32.58246038193059</v>
       </c>
       <c r="G22" t="n">
         <v>0.3593168048185272</v>
@@ -2102,7 +2102,7 @@
         <v>-0.04538671670572303</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05147346362243166</v>
+        <v>0.1374857203530619</v>
       </c>
       <c r="D23" t="n">
         <v>-0.04644895947019938</v>
@@ -2111,7 +2111,7 @@
         <v>0.2677660852611172</v>
       </c>
       <c r="F23" t="n">
-        <v>31.87159715255272</v>
+        <v>30.91353594992469</v>
       </c>
       <c r="G23" t="n">
         <v>0.3723343653600709</v>
@@ -2127,16 +2127,16 @@
         <v>-0.0006343663810676192</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001296207392720294</v>
+        <v>-0.002691853686688228</v>
       </c>
       <c r="D24" t="n">
         <v>-0.000664306383198407</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.004978528252469694</v>
+        <v>-0.00497852825247036</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.713341834847526</v>
+        <v>-1.668924432005909</v>
       </c>
       <c r="G24" t="n">
         <v>0.01301756054154363</v>
@@ -2152,16 +2152,16 @@
         <v>-1.397691719321105</v>
       </c>
       <c r="C25" t="n">
-        <v>0.251820511288737</v>
+        <v>-1.957915105492829</v>
       </c>
       <c r="D25" t="n">
         <v>-1.430185715192632</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.859282607659139</v>
+        <v>-1.859282607659388</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.23817410666033</v>
+        <v>-5.398685011993831</v>
       </c>
       <c r="G25" t="n">
         <v>3.496201734952621</v>
